--- a/6044_FramPat/SAM/Project #1/Robotron 2084/Sprite map/sprite - mikey.xlsx
+++ b/6044_FramPat/SAM/Project #1/Robotron 2084/Sprite map/sprite - mikey.xlsx
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="13" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -355,7 +355,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,7 +401,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -447,7 +447,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,7 +493,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="1040" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +631,7 @@
         <xdr:cNvPr id="1042" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -677,7 +677,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -723,7 +723,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +769,7 @@
         <xdr:cNvPr id="1048" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="1050" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,6 +834,201 @@
         <a:xfrm>
           <a:off x="14162689" y="2857500"/>
           <a:ext cx="972917" cy="2102069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>71603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>181283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>257020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18988253" y="6258233"/>
+          <a:ext cx="1404617" cy="2378428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>84207</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>94146</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15241657" y="5861050"/>
+          <a:ext cx="3159539" cy="3110396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>32855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>351459</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>87796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="9240355"/>
+          <a:ext cx="8409609" cy="607391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>At the beginning of this: https://www.youtube.com/watch?v=l800GL6NQPY&amp;t=435s&amp;ab_channel=OldClassicRetroGaming the progs seem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to be one of the "poses" of the model where the colours flash. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6578600" y="5842000"/>
+          <a:ext cx="3321050" cy="3390900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,12 +1329,12 @@
   <dimension ref="A1:CG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ17" sqref="BQ17:BU27"/>
+      <selection activeCell="AU39" sqref="AU39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="93" width="2.85546875" customWidth="1"/>
+    <col min="1" max="93" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:85">
@@ -3866,7 +4061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3878,7 +4073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
